--- a/Util/Arquivos/Relatorios/cruzamento_estilo_lideranca_x_desenvolvimento_profissional.xlsx
+++ b/Util/Arquivos/Relatorios/cruzamento_estilo_lideranca_x_desenvolvimento_profissional.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Você acredita que o estilo de liderança adotado pelo seu superior direto influencia sua motivação no trabalho?</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Quantidade</t>
+          <t>Não tenho certeza</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -456,163 +461,78 @@
           <t>Autocrático</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
+      <c r="B2" t="n">
+        <v>18.18</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>9.09</v>
+      </c>
+      <c r="D2" t="n">
+        <v>72.73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Autocrático</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Não tenho certeza</t>
-        </is>
+          <t>Democrático</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3.33</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>96.67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Autocrático</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
+          <t xml:space="preserve">Desorganizado </t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Democrático</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
+          <t>Liberal</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4.35</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>4.35</v>
+      </c>
+      <c r="D5" t="n">
+        <v>91.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Democrático</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
+          <t>Situacional</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7.89</v>
       </c>
       <c r="C6" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Desorganizado </t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Liberal</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Liberal</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Não tenho certeza</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Liberal</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Situacional</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Situacional</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>35</v>
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>92.11</v>
       </c>
     </row>
   </sheetData>
